--- a/有好货页面/id_1908045/需求表格.xlsx
+++ b/有好货页面/id_1908045/需求表格.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/li/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workHord\Front-end\有好货页面\id_1908045\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{281CD64A-9BB8-F14C-940E-A3EF8281737E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF95237-4818-45DB-9150-F6B6D1A92347}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15940" xr2:uid="{280EFB05-5750-C240-B8E3-74A8CB818465}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{280EFB05-5750-C240-B8E3-74A8CB818465}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="18">
   <si>
     <t>页面</t>
   </si>
@@ -91,7 +91,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -453,20 +453,20 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" customWidth="1"/>
-    <col min="2" max="2" width="20.1640625" customWidth="1"/>
+    <col min="1" max="1" width="19.125" customWidth="1"/>
+    <col min="2" max="2" width="20.125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.625" customWidth="1"/>
+    <col min="5" max="5" width="17.875" customWidth="1"/>
+    <col min="7" max="7" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -483,26 +483,26 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -516,22 +516,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -539,5 +544,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>